--- a/src/zh/openpyxl/worksheets/Hidden.xlsx
+++ b/src/zh/openpyxl/worksheets/Hidden.xlsx
@@ -75,11 +75,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
